--- a/biology/Médecine/Jules_Emily/Jules_Emily.xlsx
+++ b/biology/Médecine/Jules_Emily/Jules_Emily.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jules Michel Antoine Emily (Olmeto, Corse, 20 mars 1866 - Paris, 16 décembre 1944) est un explorateur et médecin français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Pierre, Thomas Emily (1820-1911) et de Barbe, Marie Pasqualaggi (1830-1911), tous deux originaires de Santa-Maria-Sichè et mariés le 30 janvier 1855. Jules Emily commence ses études de médecine à l’École de médecine navale de Toulon, puis intègre l’École de Santé Navale de Bordeaux en 1890, l’année de son ouverture. En 1899, il choisit le corps de santé des Colonies et des pays de protectorat créé par le décret du 7 janvier 1890. Il est resté célèbre parce qu’il a participé à la Mission Congo-Nil.
 En 1892, il fait un premier séjour au Soudan et participe à la pacification sous le commandement du colonel Archinard, qui est alors le commandant supérieur du Soudan français. Confronté aux épidémies de fièvre jaune, Emily est distingué et fait chevalier de la Légion d’Honneur avec deux citations. Revenu en métropole, il est embarqué sur la Nive en 1894, puis en 1896 sur La Mésange du port de Dakar. Alors qu’il était en cours de séjour, il est désigné pour servir comme médecin de la mission Marchand. Il en assure tous les soins médicaux sur l'Oubangui et entre autres, dans les marais du Bahr el Ghazal (1896).
@@ -551,7 +565,9 @@
           <t>Récompenses et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Chevalier de la Légion d'honneur (1895)
 Chevalier de l'ordre royal du Cambodge (1895)
@@ -588,7 +604,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Contribution à l'étude clinique des altérations de la peau chez les vieillards, 1891.
 La Mission Marchand dans le Bahr-el-Ghazal et à Fachoda (1913). Revue d’Histoire des Colonies 1931 ; 81 : 233-260.
